--- a/Texts/Глоссарий/Названия Локаций (всех).xlsx
+++ b/Texts/Глоссарий/Названия Локаций (всех).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="657" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="657" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Не подземелья" sheetId="1" r:id="rId1"/>
@@ -4322,8 +4322,8 @@
   </sheetPr>
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4373,7 +4373,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
-        <f>B2+1</f>
+        <f t="shared" ref="B3:B34" si="0">B2+1</f>
         <v>16436</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -4389,7 +4389,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="9">
-        <f>B3+1</f>
+        <f t="shared" si="0"/>
         <v>16437</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -4405,7 +4405,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
-        <f>B4+1</f>
+        <f t="shared" si="0"/>
         <v>16438</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -4421,7 +4421,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>16439</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4437,7 +4437,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
-        <f>B6+1</f>
+        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -4453,7 +4453,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>16441</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -4469,7 +4469,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>16442</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -4485,7 +4485,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>16443</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4501,7 +4501,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>16444</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -4517,7 +4517,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>16445</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -4533,7 +4533,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>16446</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -4549,7 +4549,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
-        <f>B13+1</f>
+        <f t="shared" si="0"/>
         <v>16447</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -4565,7 +4565,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9">
-        <f>B14+1</f>
+        <f t="shared" si="0"/>
         <v>16448</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -4581,7 +4581,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9">
-        <f>B15+1</f>
+        <f t="shared" si="0"/>
         <v>16449</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -4597,7 +4597,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="9">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>16450</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -4613,7 +4613,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>16451</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4629,7 +4629,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="9">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>16452</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -4645,7 +4645,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9">
-        <f>B19+1</f>
+        <f t="shared" si="0"/>
         <v>16453</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -4661,7 +4661,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="9">
-        <f>B20+1</f>
+        <f t="shared" si="0"/>
         <v>16454</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -4677,7 +4677,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9">
-        <f>B21+1</f>
+        <f t="shared" si="0"/>
         <v>16455</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -4693,7 +4693,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="9">
-        <f>B22+1</f>
+        <f t="shared" si="0"/>
         <v>16456</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -4709,7 +4709,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9">
-        <f>B23+1</f>
+        <f t="shared" si="0"/>
         <v>16457</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -4725,7 +4725,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9">
-        <f>B24+1</f>
+        <f t="shared" si="0"/>
         <v>16458</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -4741,7 +4741,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9">
-        <f>B25+1</f>
+        <f t="shared" si="0"/>
         <v>16459</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4757,7 +4757,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="9">
-        <f>B26+1</f>
+        <f t="shared" si="0"/>
         <v>16460</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -4773,7 +4773,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9">
-        <f>B27+1</f>
+        <f t="shared" si="0"/>
         <v>16461</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -4789,7 +4789,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="9">
-        <f>B28+1</f>
+        <f t="shared" si="0"/>
         <v>16462</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -4805,7 +4805,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9">
-        <f>B29+1</f>
+        <f t="shared" si="0"/>
         <v>16463</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -4821,7 +4821,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="9">
-        <f>B30+1</f>
+        <f t="shared" si="0"/>
         <v>16464</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -4837,7 +4837,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9">
-        <f>B31+1</f>
+        <f t="shared" si="0"/>
         <v>16465</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -4853,7 +4853,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="9">
-        <f>B32+1</f>
+        <f t="shared" si="0"/>
         <v>16466</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -4869,7 +4869,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9">
-        <f>B33+1</f>
+        <f t="shared" si="0"/>
         <v>16467</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -4885,7 +4885,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="9">
-        <f>B34+1</f>
+        <f t="shared" ref="B35:B66" si="1">B34+1</f>
         <v>16468</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -4901,7 +4901,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9">
-        <f>B35+1</f>
+        <f t="shared" si="1"/>
         <v>16469</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -4917,7 +4917,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="9">
-        <f>B36+1</f>
+        <f t="shared" si="1"/>
         <v>16470</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -4933,7 +4933,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="9">
-        <f>B37+1</f>
+        <f t="shared" si="1"/>
         <v>16471</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -4949,7 +4949,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="9">
-        <f>B38+1</f>
+        <f t="shared" si="1"/>
         <v>16472</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -4965,7 +4965,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="9">
-        <f>B39+1</f>
+        <f t="shared" si="1"/>
         <v>16473</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -4981,7 +4981,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="9">
-        <f>B40+1</f>
+        <f t="shared" si="1"/>
         <v>16474</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -4997,7 +4997,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="9">
-        <f>B41+1</f>
+        <f t="shared" si="1"/>
         <v>16475</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -5013,7 +5013,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="9">
-        <f>B42+1</f>
+        <f t="shared" si="1"/>
         <v>16476</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -5029,7 +5029,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="9">
-        <f>B43+1</f>
+        <f t="shared" si="1"/>
         <v>16477</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -5045,7 +5045,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="9">
-        <f>B44+1</f>
+        <f t="shared" si="1"/>
         <v>16478</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -5061,7 +5061,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="9">
-        <f>B45+1</f>
+        <f t="shared" si="1"/>
         <v>16479</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -5077,7 +5077,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="9">
-        <f>B46+1</f>
+        <f t="shared" si="1"/>
         <v>16480</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -5093,7 +5093,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="9">
-        <f>B47+1</f>
+        <f t="shared" si="1"/>
         <v>16481</v>
       </c>
       <c r="C48" s="9" t="s">
@@ -5109,7 +5109,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="9">
-        <f>B48+1</f>
+        <f t="shared" si="1"/>
         <v>16482</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -5125,7 +5125,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="9">
-        <f>B49+1</f>
+        <f t="shared" si="1"/>
         <v>16483</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -5141,7 +5141,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="9">
-        <f>B50+1</f>
+        <f t="shared" si="1"/>
         <v>16484</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -5157,7 +5157,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="9">
-        <f>B51+1</f>
+        <f t="shared" si="1"/>
         <v>16485</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -5173,7 +5173,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="9">
-        <f>B52+1</f>
+        <f t="shared" si="1"/>
         <v>16486</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -5189,7 +5189,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="9">
-        <f>B53+1</f>
+        <f t="shared" si="1"/>
         <v>16487</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -5205,7 +5205,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="9">
-        <f>B54+1</f>
+        <f t="shared" si="1"/>
         <v>16488</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -5221,7 +5221,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="9">
-        <f>B55+1</f>
+        <f t="shared" si="1"/>
         <v>16489</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -5237,7 +5237,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="9">
-        <f>B56+1</f>
+        <f t="shared" si="1"/>
         <v>16490</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -5253,7 +5253,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="9">
-        <f>B57+1</f>
+        <f t="shared" si="1"/>
         <v>16491</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -5269,7 +5269,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="9">
-        <f>B58+1</f>
+        <f t="shared" si="1"/>
         <v>16492</v>
       </c>
       <c r="C59" s="9" t="s">
@@ -5285,7 +5285,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="9">
-        <f>B59+1</f>
+        <f t="shared" si="1"/>
         <v>16493</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -5301,7 +5301,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="9">
-        <f>B60+1</f>
+        <f t="shared" si="1"/>
         <v>16494</v>
       </c>
       <c r="C61" s="9" t="s">
@@ -5317,7 +5317,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="9">
-        <f>B61+1</f>
+        <f t="shared" si="1"/>
         <v>16495</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -5333,7 +5333,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="9">
-        <f>B62+1</f>
+        <f t="shared" si="1"/>
         <v>16496</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -5349,7 +5349,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="9">
-        <f>B63+1</f>
+        <f t="shared" si="1"/>
         <v>16497</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -5365,7 +5365,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="9">
-        <f>B64+1</f>
+        <f t="shared" si="1"/>
         <v>16498</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -5381,7 +5381,7 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="9">
-        <f>B65+1</f>
+        <f t="shared" si="1"/>
         <v>16499</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -5397,7 +5397,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="9">
-        <f>B66+1</f>
+        <f t="shared" ref="B67:B98" si="2">B66+1</f>
         <v>16500</v>
       </c>
       <c r="C67" s="9" t="s">
@@ -5413,7 +5413,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="9">
-        <f>B67+1</f>
+        <f t="shared" si="2"/>
         <v>16501</v>
       </c>
       <c r="C68" s="9" t="s">
@@ -5429,7 +5429,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="9">
-        <f>B68+1</f>
+        <f t="shared" si="2"/>
         <v>16502</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -5445,7 +5445,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="9">
-        <f>B69+1</f>
+        <f t="shared" si="2"/>
         <v>16503</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -5461,7 +5461,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="9">
-        <f>B70+1</f>
+        <f t="shared" si="2"/>
         <v>16504</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -5477,7 +5477,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="9">
-        <f>B71+1</f>
+        <f t="shared" si="2"/>
         <v>16505</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -5493,7 +5493,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="9">
-        <f>B72+1</f>
+        <f t="shared" si="2"/>
         <v>16506</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -5509,7 +5509,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="9">
-        <f>B73+1</f>
+        <f t="shared" si="2"/>
         <v>16507</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -5525,7 +5525,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="9">
-        <f>B74+1</f>
+        <f t="shared" si="2"/>
         <v>16508</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -5541,7 +5541,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="9">
-        <f>B75+1</f>
+        <f t="shared" si="2"/>
         <v>16509</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -5557,7 +5557,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="9">
-        <f>B76+1</f>
+        <f t="shared" si="2"/>
         <v>16510</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -5573,7 +5573,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="9">
-        <f>B77+1</f>
+        <f t="shared" si="2"/>
         <v>16511</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -5589,7 +5589,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="9">
-        <f>B78+1</f>
+        <f t="shared" si="2"/>
         <v>16512</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -5605,7 +5605,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="9">
-        <f>B79+1</f>
+        <f t="shared" si="2"/>
         <v>16513</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -5621,7 +5621,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="9">
-        <f>B80+1</f>
+        <f t="shared" si="2"/>
         <v>16514</v>
       </c>
       <c r="C81" s="9" t="s">
@@ -5637,7 +5637,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="9">
-        <f>B81+1</f>
+        <f t="shared" si="2"/>
         <v>16515</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -5653,7 +5653,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="9">
-        <f>B82+1</f>
+        <f t="shared" si="2"/>
         <v>16516</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -5669,7 +5669,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="9">
-        <f>B83+1</f>
+        <f t="shared" si="2"/>
         <v>16517</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -5685,7 +5685,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="9">
-        <f>B84+1</f>
+        <f t="shared" si="2"/>
         <v>16518</v>
       </c>
       <c r="C85" s="9" t="s">
@@ -5701,7 +5701,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="9">
-        <f>B85+1</f>
+        <f t="shared" si="2"/>
         <v>16519</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -5717,7 +5717,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="9">
-        <f>B86+1</f>
+        <f t="shared" si="2"/>
         <v>16520</v>
       </c>
       <c r="C87" s="9" t="s">
@@ -5733,7 +5733,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="9">
-        <f>B87+1</f>
+        <f t="shared" si="2"/>
         <v>16521</v>
       </c>
       <c r="C88" s="9" t="s">
@@ -5749,7 +5749,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="9">
-        <f>B88+1</f>
+        <f t="shared" si="2"/>
         <v>16522</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -5765,7 +5765,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="9">
-        <f>B89+1</f>
+        <f t="shared" si="2"/>
         <v>16523</v>
       </c>
       <c r="C90" s="9" t="s">
@@ -5781,7 +5781,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="9">
-        <f>B90+1</f>
+        <f t="shared" si="2"/>
         <v>16524</v>
       </c>
       <c r="C91" s="9" t="s">
@@ -5797,7 +5797,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="9">
-        <f>B91+1</f>
+        <f t="shared" si="2"/>
         <v>16525</v>
       </c>
       <c r="C92" s="9" t="s">
@@ -5813,7 +5813,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="9">
-        <f>B92+1</f>
+        <f t="shared" si="2"/>
         <v>16526</v>
       </c>
       <c r="C93" s="9" t="s">
@@ -5829,7 +5829,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="9">
-        <f>B93+1</f>
+        <f t="shared" si="2"/>
         <v>16527</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -5845,7 +5845,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="9">
-        <f>B94+1</f>
+        <f t="shared" si="2"/>
         <v>16528</v>
       </c>
       <c r="C95" s="9" t="s">
@@ -5861,7 +5861,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="9">
-        <f>B95+1</f>
+        <f t="shared" si="2"/>
         <v>16529</v>
       </c>
       <c r="C96" s="9" t="s">
@@ -5877,7 +5877,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="9">
-        <f>B96+1</f>
+        <f t="shared" si="2"/>
         <v>16530</v>
       </c>
       <c r="C97" s="9" t="s">
@@ -5893,7 +5893,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="9">
-        <f>B97+1</f>
+        <f t="shared" si="2"/>
         <v>16531</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -5909,7 +5909,7 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="9">
-        <f>B98+1</f>
+        <f t="shared" ref="B99:B131" si="3">B98+1</f>
         <v>16532</v>
       </c>
       <c r="C99" s="9" t="s">
@@ -5925,7 +5925,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="9">
-        <f>B99+1</f>
+        <f t="shared" si="3"/>
         <v>16533</v>
       </c>
       <c r="C100" s="9" t="s">
@@ -5941,7 +5941,7 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="9">
-        <f>B100+1</f>
+        <f t="shared" si="3"/>
         <v>16534</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -5957,7 +5957,7 @@
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="9">
-        <f>B101+1</f>
+        <f t="shared" si="3"/>
         <v>16535</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -5973,7 +5973,7 @@
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="9">
-        <f>B102+1</f>
+        <f t="shared" si="3"/>
         <v>16536</v>
       </c>
       <c r="C103" s="9" t="s">
@@ -5989,7 +5989,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="9">
-        <f>B103+1</f>
+        <f t="shared" si="3"/>
         <v>16537</v>
       </c>
       <c r="C104" s="9" t="s">
@@ -6005,7 +6005,7 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="9">
-        <f>B104+1</f>
+        <f t="shared" si="3"/>
         <v>16538</v>
       </c>
       <c r="C105" s="9" t="s">
@@ -6021,7 +6021,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="9">
-        <f>B105+1</f>
+        <f t="shared" si="3"/>
         <v>16539</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -6037,7 +6037,7 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="9">
-        <f>B106+1</f>
+        <f t="shared" si="3"/>
         <v>16540</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -6053,7 +6053,7 @@
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="9">
-        <f>B107+1</f>
+        <f t="shared" si="3"/>
         <v>16541</v>
       </c>
       <c r="C108" s="9" t="s">
@@ -6069,7 +6069,7 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="9">
-        <f>B108+1</f>
+        <f t="shared" si="3"/>
         <v>16542</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -6085,7 +6085,7 @@
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="9">
-        <f>B109+1</f>
+        <f t="shared" si="3"/>
         <v>16543</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -6101,7 +6101,7 @@
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="9">
-        <f>B110+1</f>
+        <f t="shared" si="3"/>
         <v>16544</v>
       </c>
       <c r="C111" s="9" t="s">
@@ -6117,7 +6117,7 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="9">
-        <f>B111+1</f>
+        <f t="shared" si="3"/>
         <v>16545</v>
       </c>
       <c r="C112" s="9" t="s">
@@ -6133,7 +6133,7 @@
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="9">
-        <f>B112+1</f>
+        <f t="shared" si="3"/>
         <v>16546</v>
       </c>
       <c r="C113" s="9" t="s">
@@ -6149,7 +6149,7 @@
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="9">
-        <f>B113+1</f>
+        <f t="shared" si="3"/>
         <v>16547</v>
       </c>
       <c r="C114" s="9" t="s">
@@ -6165,7 +6165,7 @@
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="9">
-        <f>B114+1</f>
+        <f t="shared" si="3"/>
         <v>16548</v>
       </c>
       <c r="C115" s="9" t="s">
@@ -6181,7 +6181,7 @@
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="9">
-        <f>B115+1</f>
+        <f t="shared" si="3"/>
         <v>16549</v>
       </c>
       <c r="C116" s="9" t="s">
@@ -6197,7 +6197,7 @@
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="9">
-        <f>B116+1</f>
+        <f t="shared" si="3"/>
         <v>16550</v>
       </c>
       <c r="C117" s="9" t="s">
@@ -6213,7 +6213,7 @@
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="9">
-        <f>B117+1</f>
+        <f t="shared" si="3"/>
         <v>16551</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -6229,7 +6229,7 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="9">
-        <f>B118+1</f>
+        <f t="shared" si="3"/>
         <v>16552</v>
       </c>
       <c r="C119" s="9" t="s">
@@ -6245,7 +6245,7 @@
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="9">
-        <f>B119+1</f>
+        <f t="shared" si="3"/>
         <v>16553</v>
       </c>
       <c r="C120" s="9" t="s">
@@ -6261,7 +6261,7 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="9">
-        <f>B120+1</f>
+        <f t="shared" si="3"/>
         <v>16554</v>
       </c>
       <c r="C121" s="9" t="s">
@@ -6277,7 +6277,7 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="9">
-        <f>B121+1</f>
+        <f t="shared" si="3"/>
         <v>16555</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -6293,7 +6293,7 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="9">
-        <f>B122+1</f>
+        <f t="shared" si="3"/>
         <v>16556</v>
       </c>
       <c r="C123" s="9" t="s">
@@ -6309,7 +6309,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="9">
-        <f>B123+1</f>
+        <f t="shared" si="3"/>
         <v>16557</v>
       </c>
       <c r="C124" s="9" t="s">
@@ -6325,7 +6325,7 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="9">
-        <f>B124+1</f>
+        <f t="shared" si="3"/>
         <v>16558</v>
       </c>
       <c r="C125" s="9" t="s">
@@ -6341,7 +6341,7 @@
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" s="9">
-        <f>B125+1</f>
+        <f t="shared" si="3"/>
         <v>16559</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -6357,7 +6357,7 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="9">
-        <f>B126+1</f>
+        <f t="shared" si="3"/>
         <v>16560</v>
       </c>
       <c r="C127" s="9" t="s">
@@ -6373,7 +6373,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="9">
-        <f>B127+1</f>
+        <f t="shared" si="3"/>
         <v>16561</v>
       </c>
       <c r="C128" s="9" t="s">
@@ -6389,7 +6389,7 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" s="9">
-        <f>B128+1</f>
+        <f t="shared" si="3"/>
         <v>16562</v>
       </c>
       <c r="C129" s="9" t="s">
@@ -6405,7 +6405,7 @@
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="B130" s="9">
-        <f>B129+1</f>
+        <f t="shared" si="3"/>
         <v>16563</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -6421,7 +6421,7 @@
     <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11"/>
       <c r="B131" s="12">
-        <f>B130+1</f>
+        <f t="shared" si="3"/>
         <v>16564</v>
       </c>
       <c r="C131" s="12" t="s">
@@ -6446,8 +6446,8 @@
   </sheetPr>
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10586,8 +10586,8 @@
   </sheetPr>
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194:E194"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10638,7 +10638,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9">
-        <f>B2+1</f>
+        <f t="shared" ref="B3:B66" si="0">B2+1</f>
         <v>16566</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -10654,7 +10654,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="9">
-        <f>B3+1</f>
+        <f t="shared" si="0"/>
         <v>16567</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -10670,7 +10670,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="9">
-        <f>B4+1</f>
+        <f t="shared" si="0"/>
         <v>16568</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -10686,7 +10686,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>16569</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -10702,7 +10702,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9">
-        <f>B6+1</f>
+        <f t="shared" si="0"/>
         <v>16570</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -10718,7 +10718,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>16571</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -10734,7 +10734,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>16572</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -10750,7 +10750,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>16573</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -10766,7 +10766,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>16574</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -10782,7 +10782,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>16575</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -10798,7 +10798,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>16576</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -10814,7 +10814,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
-        <f>B13+1</f>
+        <f t="shared" si="0"/>
         <v>16577</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -10830,7 +10830,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9">
-        <f>B14+1</f>
+        <f t="shared" si="0"/>
         <v>16578</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -10846,7 +10846,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9">
-        <f>B15+1</f>
+        <f t="shared" si="0"/>
         <v>16579</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -10862,7 +10862,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="9">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>16580</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -10878,7 +10878,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>16581</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -10894,7 +10894,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="9">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>16582</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -10910,7 +10910,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9">
-        <f>B19+1</f>
+        <f t="shared" si="0"/>
         <v>16583</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -10926,7 +10926,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="9">
-        <f>B20+1</f>
+        <f t="shared" si="0"/>
         <v>16584</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -10942,7 +10942,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9">
-        <f>B21+1</f>
+        <f t="shared" si="0"/>
         <v>16585</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -10958,7 +10958,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="9">
-        <f>B22+1</f>
+        <f t="shared" si="0"/>
         <v>16586</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -10974,7 +10974,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9">
-        <f>B23+1</f>
+        <f t="shared" si="0"/>
         <v>16587</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -10990,7 +10990,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9">
-        <f>B24+1</f>
+        <f t="shared" si="0"/>
         <v>16588</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -11006,7 +11006,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9">
-        <f>B25+1</f>
+        <f t="shared" si="0"/>
         <v>16589</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -11022,7 +11022,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="9">
-        <f>B26+1</f>
+        <f t="shared" si="0"/>
         <v>16590</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -11038,7 +11038,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9">
-        <f>B27+1</f>
+        <f t="shared" si="0"/>
         <v>16591</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -11054,7 +11054,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="9">
-        <f>B28+1</f>
+        <f t="shared" si="0"/>
         <v>16592</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -11070,7 +11070,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9">
-        <f>B29+1</f>
+        <f t="shared" si="0"/>
         <v>16593</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -11086,7 +11086,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="9">
-        <f>B30+1</f>
+        <f t="shared" si="0"/>
         <v>16594</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -11102,7 +11102,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9">
-        <f>B31+1</f>
+        <f t="shared" si="0"/>
         <v>16595</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -11118,7 +11118,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="9">
-        <f>B32+1</f>
+        <f t="shared" si="0"/>
         <v>16596</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -11134,7 +11134,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9">
-        <f>B33+1</f>
+        <f t="shared" si="0"/>
         <v>16597</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -11150,7 +11150,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="9">
-        <f>B34+1</f>
+        <f t="shared" si="0"/>
         <v>16598</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -11166,7 +11166,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9">
-        <f>B35+1</f>
+        <f t="shared" si="0"/>
         <v>16599</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -11182,7 +11182,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="9">
-        <f>B36+1</f>
+        <f t="shared" si="0"/>
         <v>16600</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -11198,7 +11198,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="9">
-        <f>B37+1</f>
+        <f t="shared" si="0"/>
         <v>16601</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -11214,7 +11214,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="9">
-        <f>B38+1</f>
+        <f t="shared" si="0"/>
         <v>16602</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -11230,7 +11230,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="9">
-        <f>B39+1</f>
+        <f t="shared" si="0"/>
         <v>16603</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -11246,7 +11246,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="9">
-        <f>B40+1</f>
+        <f t="shared" si="0"/>
         <v>16604</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -11262,7 +11262,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="9">
-        <f>B41+1</f>
+        <f t="shared" si="0"/>
         <v>16605</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -11278,7 +11278,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="9">
-        <f>B42+1</f>
+        <f t="shared" si="0"/>
         <v>16606</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -11294,7 +11294,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="9">
-        <f>B43+1</f>
+        <f t="shared" si="0"/>
         <v>16607</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -11310,7 +11310,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="9">
-        <f>B44+1</f>
+        <f t="shared" si="0"/>
         <v>16608</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -11326,7 +11326,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="9">
-        <f>B45+1</f>
+        <f t="shared" si="0"/>
         <v>16609</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -11342,7 +11342,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="9">
-        <f>B46+1</f>
+        <f t="shared" si="0"/>
         <v>16610</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -11358,7 +11358,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="9">
-        <f>B47+1</f>
+        <f t="shared" si="0"/>
         <v>16611</v>
       </c>
       <c r="C48" s="9" t="s">
@@ -11374,7 +11374,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="9">
-        <f>B48+1</f>
+        <f t="shared" si="0"/>
         <v>16612</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -11390,7 +11390,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="9">
-        <f>B49+1</f>
+        <f t="shared" si="0"/>
         <v>16613</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -11406,7 +11406,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="9">
-        <f>B50+1</f>
+        <f t="shared" si="0"/>
         <v>16614</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -11422,7 +11422,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="9">
-        <f>B51+1</f>
+        <f t="shared" si="0"/>
         <v>16615</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -11438,7 +11438,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="9">
-        <f>B52+1</f>
+        <f t="shared" si="0"/>
         <v>16616</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -11454,7 +11454,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="9">
-        <f>B53+1</f>
+        <f t="shared" si="0"/>
         <v>16617</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -11470,7 +11470,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="9">
-        <f>B54+1</f>
+        <f t="shared" si="0"/>
         <v>16618</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -11486,7 +11486,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="9">
-        <f>B55+1</f>
+        <f t="shared" si="0"/>
         <v>16619</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -11502,7 +11502,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="9">
-        <f>B56+1</f>
+        <f t="shared" si="0"/>
         <v>16620</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -11518,7 +11518,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="9">
-        <f>B57+1</f>
+        <f t="shared" si="0"/>
         <v>16621</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -11534,7 +11534,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="9">
-        <f>B58+1</f>
+        <f t="shared" si="0"/>
         <v>16622</v>
       </c>
       <c r="C59" s="9" t="s">
@@ -11550,7 +11550,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="9">
-        <f>B59+1</f>
+        <f t="shared" si="0"/>
         <v>16623</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -11566,7 +11566,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="9">
-        <f>B60+1</f>
+        <f t="shared" si="0"/>
         <v>16624</v>
       </c>
       <c r="C61" s="9" t="s">
@@ -11582,7 +11582,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="9">
-        <f>B61+1</f>
+        <f t="shared" si="0"/>
         <v>16625</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -11598,7 +11598,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="9">
-        <f>B62+1</f>
+        <f t="shared" si="0"/>
         <v>16626</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -11614,7 +11614,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="9">
-        <f>B63+1</f>
+        <f t="shared" si="0"/>
         <v>16627</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -11630,7 +11630,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="9">
-        <f>B64+1</f>
+        <f t="shared" si="0"/>
         <v>16628</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -11646,7 +11646,7 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="9">
-        <f>B65+1</f>
+        <f t="shared" si="0"/>
         <v>16629</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -11662,7 +11662,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="9">
-        <f>B66+1</f>
+        <f t="shared" ref="B67:B130" si="1">B66+1</f>
         <v>16630</v>
       </c>
       <c r="C67" s="9" t="s">
@@ -11678,7 +11678,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="9">
-        <f>B67+1</f>
+        <f t="shared" si="1"/>
         <v>16631</v>
       </c>
       <c r="C68" s="9" t="s">
@@ -11694,7 +11694,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="9">
-        <f>B68+1</f>
+        <f t="shared" si="1"/>
         <v>16632</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -11710,7 +11710,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="9">
-        <f>B69+1</f>
+        <f t="shared" si="1"/>
         <v>16633</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -11726,7 +11726,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="9">
-        <f>B70+1</f>
+        <f t="shared" si="1"/>
         <v>16634</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -11742,7 +11742,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="9">
-        <f>B71+1</f>
+        <f t="shared" si="1"/>
         <v>16635</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -11758,7 +11758,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="9">
-        <f>B72+1</f>
+        <f t="shared" si="1"/>
         <v>16636</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -11774,7 +11774,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="9">
-        <f>B73+1</f>
+        <f t="shared" si="1"/>
         <v>16637</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -11790,7 +11790,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="9">
-        <f>B74+1</f>
+        <f t="shared" si="1"/>
         <v>16638</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -11806,7 +11806,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="9">
-        <f>B75+1</f>
+        <f t="shared" si="1"/>
         <v>16639</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -11822,7 +11822,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="9">
-        <f>B76+1</f>
+        <f t="shared" si="1"/>
         <v>16640</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -11838,7 +11838,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="9">
-        <f>B77+1</f>
+        <f t="shared" si="1"/>
         <v>16641</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -11854,7 +11854,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="9">
-        <f>B78+1</f>
+        <f t="shared" si="1"/>
         <v>16642</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -11870,7 +11870,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="9">
-        <f>B79+1</f>
+        <f t="shared" si="1"/>
         <v>16643</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -11886,7 +11886,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="9">
-        <f>B80+1</f>
+        <f t="shared" si="1"/>
         <v>16644</v>
       </c>
       <c r="C81" s="9" t="s">
@@ -11902,7 +11902,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="9">
-        <f>B81+1</f>
+        <f t="shared" si="1"/>
         <v>16645</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -11918,7 +11918,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="9">
-        <f>B82+1</f>
+        <f t="shared" si="1"/>
         <v>16646</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -11934,7 +11934,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="9">
-        <f>B83+1</f>
+        <f t="shared" si="1"/>
         <v>16647</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -11950,7 +11950,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="9">
-        <f>B84+1</f>
+        <f t="shared" si="1"/>
         <v>16648</v>
       </c>
       <c r="C85" s="9" t="s">
@@ -11966,7 +11966,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="9">
-        <f>B85+1</f>
+        <f t="shared" si="1"/>
         <v>16649</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -11982,7 +11982,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="9">
-        <f>B86+1</f>
+        <f t="shared" si="1"/>
         <v>16650</v>
       </c>
       <c r="C87" s="9" t="s">
@@ -11998,7 +11998,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="9">
-        <f>B87+1</f>
+        <f t="shared" si="1"/>
         <v>16651</v>
       </c>
       <c r="C88" s="9" t="s">
@@ -12014,7 +12014,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="9">
-        <f>B88+1</f>
+        <f t="shared" si="1"/>
         <v>16652</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -12030,7 +12030,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="9">
-        <f>B89+1</f>
+        <f t="shared" si="1"/>
         <v>16653</v>
       </c>
       <c r="C90" s="9" t="s">
@@ -12046,7 +12046,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="9">
-        <f>B90+1</f>
+        <f t="shared" si="1"/>
         <v>16654</v>
       </c>
       <c r="C91" s="9" t="s">
@@ -12062,7 +12062,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="9">
-        <f>B91+1</f>
+        <f t="shared" si="1"/>
         <v>16655</v>
       </c>
       <c r="C92" s="9" t="s">
@@ -12078,7 +12078,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="9">
-        <f>B92+1</f>
+        <f t="shared" si="1"/>
         <v>16656</v>
       </c>
       <c r="C93" s="9" t="s">
@@ -12094,7 +12094,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="9">
-        <f>B93+1</f>
+        <f t="shared" si="1"/>
         <v>16657</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -12110,7 +12110,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="9">
-        <f>B94+1</f>
+        <f t="shared" si="1"/>
         <v>16658</v>
       </c>
       <c r="C95" s="9" t="s">
@@ -12126,7 +12126,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="9">
-        <f>B95+1</f>
+        <f t="shared" si="1"/>
         <v>16659</v>
       </c>
       <c r="C96" s="9" t="s">
@@ -12142,7 +12142,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="9">
-        <f>B96+1</f>
+        <f t="shared" si="1"/>
         <v>16660</v>
       </c>
       <c r="C97" s="9" t="s">
@@ -12158,7 +12158,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="9">
-        <f>B97+1</f>
+        <f t="shared" si="1"/>
         <v>16661</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -12174,7 +12174,7 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="9">
-        <f>B98+1</f>
+        <f t="shared" si="1"/>
         <v>16662</v>
       </c>
       <c r="C99" s="9" t="s">
@@ -12190,7 +12190,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="9">
-        <f>B99+1</f>
+        <f t="shared" si="1"/>
         <v>16663</v>
       </c>
       <c r="C100" s="9" t="s">
@@ -12206,7 +12206,7 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="9">
-        <f>B100+1</f>
+        <f t="shared" si="1"/>
         <v>16664</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -12222,7 +12222,7 @@
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="9">
-        <f>B101+1</f>
+        <f t="shared" si="1"/>
         <v>16665</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -12238,7 +12238,7 @@
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="9">
-        <f>B102+1</f>
+        <f t="shared" si="1"/>
         <v>16666</v>
       </c>
       <c r="C103" s="9" t="s">
@@ -12254,7 +12254,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="9">
-        <f>B103+1</f>
+        <f t="shared" si="1"/>
         <v>16667</v>
       </c>
       <c r="C104" s="9" t="s">
@@ -12270,7 +12270,7 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="9">
-        <f>B104+1</f>
+        <f t="shared" si="1"/>
         <v>16668</v>
       </c>
       <c r="C105" s="9" t="s">
@@ -12286,7 +12286,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="9">
-        <f>B105+1</f>
+        <f t="shared" si="1"/>
         <v>16669</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -12302,7 +12302,7 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="9">
-        <f>B106+1</f>
+        <f t="shared" si="1"/>
         <v>16670</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -12318,7 +12318,7 @@
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="9">
-        <f>B107+1</f>
+        <f t="shared" si="1"/>
         <v>16671</v>
       </c>
       <c r="C108" s="9" t="s">
@@ -12334,7 +12334,7 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="9">
-        <f>B108+1</f>
+        <f t="shared" si="1"/>
         <v>16672</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -12350,7 +12350,7 @@
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="9">
-        <f>B109+1</f>
+        <f t="shared" si="1"/>
         <v>16673</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -12366,7 +12366,7 @@
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="9">
-        <f>B110+1</f>
+        <f t="shared" si="1"/>
         <v>16674</v>
       </c>
       <c r="C111" s="9" t="s">
@@ -12382,7 +12382,7 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="9">
-        <f>B111+1</f>
+        <f t="shared" si="1"/>
         <v>16675</v>
       </c>
       <c r="C112" s="9" t="s">
@@ -12398,7 +12398,7 @@
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="9">
-        <f>B112+1</f>
+        <f t="shared" si="1"/>
         <v>16676</v>
       </c>
       <c r="C113" s="9" t="s">
@@ -12414,7 +12414,7 @@
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="9">
-        <f>B113+1</f>
+        <f t="shared" si="1"/>
         <v>16677</v>
       </c>
       <c r="C114" s="9" t="s">
@@ -12430,7 +12430,7 @@
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="9">
-        <f>B114+1</f>
+        <f t="shared" si="1"/>
         <v>16678</v>
       </c>
       <c r="C115" s="9" t="s">
@@ -12446,7 +12446,7 @@
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="9">
-        <f>B115+1</f>
+        <f t="shared" si="1"/>
         <v>16679</v>
       </c>
       <c r="C116" s="9" t="s">
@@ -12462,7 +12462,7 @@
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="9">
-        <f>B116+1</f>
+        <f t="shared" si="1"/>
         <v>16680</v>
       </c>
       <c r="C117" s="9" t="s">
@@ -12478,7 +12478,7 @@
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="9">
-        <f>B117+1</f>
+        <f t="shared" si="1"/>
         <v>16681</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -12494,7 +12494,7 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="9">
-        <f>B118+1</f>
+        <f t="shared" si="1"/>
         <v>16682</v>
       </c>
       <c r="C119" s="9" t="s">
@@ -12510,7 +12510,7 @@
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="9">
-        <f>B119+1</f>
+        <f t="shared" si="1"/>
         <v>16683</v>
       </c>
       <c r="C120" s="9" t="s">
@@ -12526,7 +12526,7 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="9">
-        <f>B120+1</f>
+        <f t="shared" si="1"/>
         <v>16684</v>
       </c>
       <c r="C121" s="9" t="s">
@@ -12542,7 +12542,7 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="9">
-        <f>B121+1</f>
+        <f t="shared" si="1"/>
         <v>16685</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -12558,7 +12558,7 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="9">
-        <f>B122+1</f>
+        <f t="shared" si="1"/>
         <v>16686</v>
       </c>
       <c r="C123" s="9" t="s">
@@ -12574,7 +12574,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="9">
-        <f>B123+1</f>
+        <f t="shared" si="1"/>
         <v>16687</v>
       </c>
       <c r="C124" s="9" t="s">
@@ -12590,7 +12590,7 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="9">
-        <f>B124+1</f>
+        <f t="shared" si="1"/>
         <v>16688</v>
       </c>
       <c r="C125" s="9" t="s">
@@ -12606,7 +12606,7 @@
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" s="9">
-        <f>B125+1</f>
+        <f t="shared" si="1"/>
         <v>16689</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -12622,7 +12622,7 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="9">
-        <f>B126+1</f>
+        <f t="shared" si="1"/>
         <v>16690</v>
       </c>
       <c r="C127" s="9" t="s">
@@ -12638,7 +12638,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="9">
-        <f>B127+1</f>
+        <f t="shared" si="1"/>
         <v>16691</v>
       </c>
       <c r="C128" s="9" t="s">
@@ -12654,7 +12654,7 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" s="9">
-        <f>B128+1</f>
+        <f t="shared" si="1"/>
         <v>16692</v>
       </c>
       <c r="C129" s="9" t="s">
@@ -12670,7 +12670,7 @@
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="B130" s="9">
-        <f>B129+1</f>
+        <f t="shared" si="1"/>
         <v>16693</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -12686,7 +12686,7 @@
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>
       <c r="B131" s="9">
-        <f>B130+1</f>
+        <f t="shared" ref="B131:B194" si="2">B130+1</f>
         <v>16694</v>
       </c>
       <c r="C131" s="9" t="s">
@@ -12702,7 +12702,7 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="9">
-        <f>B131+1</f>
+        <f t="shared" si="2"/>
         <v>16695</v>
       </c>
       <c r="C132" s="9" t="s">
@@ -12718,7 +12718,7 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="9">
-        <f>B132+1</f>
+        <f t="shared" si="2"/>
         <v>16696</v>
       </c>
       <c r="C133" s="9" t="s">
@@ -12734,7 +12734,7 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
       <c r="B134" s="9">
-        <f>B133+1</f>
+        <f t="shared" si="2"/>
         <v>16697</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -12750,7 +12750,7 @@
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" s="9">
-        <f>B134+1</f>
+        <f t="shared" si="2"/>
         <v>16698</v>
       </c>
       <c r="C135" s="9" t="s">
@@ -12766,7 +12766,7 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="9">
-        <f>B135+1</f>
+        <f t="shared" si="2"/>
         <v>16699</v>
       </c>
       <c r="C136" s="9" t="s">
@@ -12782,7 +12782,7 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" s="9">
-        <f>B136+1</f>
+        <f t="shared" si="2"/>
         <v>16700</v>
       </c>
       <c r="C137" s="9" t="s">
@@ -12798,7 +12798,7 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="B138" s="9">
-        <f>B137+1</f>
+        <f t="shared" si="2"/>
         <v>16701</v>
       </c>
       <c r="C138" s="9" t="s">
@@ -12814,7 +12814,7 @@
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" s="9">
-        <f>B138+1</f>
+        <f t="shared" si="2"/>
         <v>16702</v>
       </c>
       <c r="C139" s="9" t="s">
@@ -12830,7 +12830,7 @@
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="9">
-        <f>B139+1</f>
+        <f t="shared" si="2"/>
         <v>16703</v>
       </c>
       <c r="C140" s="9" t="s">
@@ -12846,7 +12846,7 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="9">
-        <f>B140+1</f>
+        <f t="shared" si="2"/>
         <v>16704</v>
       </c>
       <c r="C141" s="9" t="s">
@@ -12862,7 +12862,7 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="B142" s="9">
-        <f>B141+1</f>
+        <f t="shared" si="2"/>
         <v>16705</v>
       </c>
       <c r="C142" s="9" t="s">
@@ -12878,7 +12878,7 @@
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="9">
-        <f>B142+1</f>
+        <f t="shared" si="2"/>
         <v>16706</v>
       </c>
       <c r="C143" s="9" t="s">
@@ -12894,7 +12894,7 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" s="9">
-        <f>B143+1</f>
+        <f t="shared" si="2"/>
         <v>16707</v>
       </c>
       <c r="C144" s="9" t="s">
@@ -12910,7 +12910,7 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" s="9">
-        <f>B144+1</f>
+        <f t="shared" si="2"/>
         <v>16708</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -12926,7 +12926,7 @@
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" s="9">
-        <f>B145+1</f>
+        <f t="shared" si="2"/>
         <v>16709</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -12942,7 +12942,7 @@
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" s="9">
-        <f>B146+1</f>
+        <f t="shared" si="2"/>
         <v>16710</v>
       </c>
       <c r="C147" s="9" t="s">
@@ -12958,7 +12958,7 @@
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" s="9">
-        <f>B147+1</f>
+        <f t="shared" si="2"/>
         <v>16711</v>
       </c>
       <c r="C148" s="9" t="s">
@@ -12974,7 +12974,7 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="9">
-        <f>B148+1</f>
+        <f t="shared" si="2"/>
         <v>16712</v>
       </c>
       <c r="C149" s="9" t="s">
@@ -12990,7 +12990,7 @@
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" s="9">
-        <f>B149+1</f>
+        <f t="shared" si="2"/>
         <v>16713</v>
       </c>
       <c r="C150" s="9" t="s">
@@ -13006,7 +13006,7 @@
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="9">
-        <f>B150+1</f>
+        <f t="shared" si="2"/>
         <v>16714</v>
       </c>
       <c r="C151" s="9" t="s">
@@ -13022,7 +13022,7 @@
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" s="9">
-        <f>B151+1</f>
+        <f t="shared" si="2"/>
         <v>16715</v>
       </c>
       <c r="C152" s="9" t="s">
@@ -13038,7 +13038,7 @@
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="B153" s="9">
-        <f>B152+1</f>
+        <f t="shared" si="2"/>
         <v>16716</v>
       </c>
       <c r="C153" s="9" t="s">
@@ -13054,7 +13054,7 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="B154" s="9">
-        <f>B153+1</f>
+        <f t="shared" si="2"/>
         <v>16717</v>
       </c>
       <c r="C154" s="9" t="s">
@@ -13070,7 +13070,7 @@
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" s="9">
-        <f>B154+1</f>
+        <f t="shared" si="2"/>
         <v>16718</v>
       </c>
       <c r="C155" s="9" t="s">
@@ -13086,7 +13086,7 @@
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" s="9">
-        <f>B155+1</f>
+        <f t="shared" si="2"/>
         <v>16719</v>
       </c>
       <c r="C156" s="9" t="s">
@@ -13102,7 +13102,7 @@
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" s="9">
-        <f>B156+1</f>
+        <f t="shared" si="2"/>
         <v>16720</v>
       </c>
       <c r="C157" s="9" t="s">
@@ -13118,7 +13118,7 @@
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" s="9">
-        <f>B157+1</f>
+        <f t="shared" si="2"/>
         <v>16721</v>
       </c>
       <c r="C158" s="9" t="s">
@@ -13134,7 +13134,7 @@
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" s="9">
-        <f>B158+1</f>
+        <f t="shared" si="2"/>
         <v>16722</v>
       </c>
       <c r="C159" s="9" t="s">
@@ -13150,7 +13150,7 @@
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="8"/>
       <c r="B160" s="9">
-        <f>B159+1</f>
+        <f t="shared" si="2"/>
         <v>16723</v>
       </c>
       <c r="C160" s="9" t="s">
@@ -13166,7 +13166,7 @@
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="8"/>
       <c r="B161" s="9">
-        <f>B160+1</f>
+        <f t="shared" si="2"/>
         <v>16724</v>
       </c>
       <c r="C161" s="9" t="s">
@@ -13182,7 +13182,7 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
       <c r="B162" s="9">
-        <f>B161+1</f>
+        <f t="shared" si="2"/>
         <v>16725</v>
       </c>
       <c r="C162" s="9" t="s">
@@ -13198,7 +13198,7 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="B163" s="9">
-        <f>B162+1</f>
+        <f t="shared" si="2"/>
         <v>16726</v>
       </c>
       <c r="C163" s="9" t="s">
@@ -13214,7 +13214,7 @@
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
       <c r="B164" s="9">
-        <f>B163+1</f>
+        <f t="shared" si="2"/>
         <v>16727</v>
       </c>
       <c r="C164" s="9" t="s">
@@ -13230,7 +13230,7 @@
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
       <c r="B165" s="9">
-        <f>B164+1</f>
+        <f t="shared" si="2"/>
         <v>16728</v>
       </c>
       <c r="C165" s="9" t="s">
@@ -13246,7 +13246,7 @@
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="8"/>
       <c r="B166" s="9">
-        <f>B165+1</f>
+        <f t="shared" si="2"/>
         <v>16729</v>
       </c>
       <c r="C166" s="9" t="s">
@@ -13262,7 +13262,7 @@
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
       <c r="B167" s="9">
-        <f>B166+1</f>
+        <f t="shared" si="2"/>
         <v>16730</v>
       </c>
       <c r="C167" s="9" t="s">
@@ -13278,7 +13278,7 @@
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
       <c r="B168" s="9">
-        <f>B167+1</f>
+        <f t="shared" si="2"/>
         <v>16731</v>
       </c>
       <c r="C168" s="9" t="s">
@@ -13294,7 +13294,7 @@
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
       <c r="B169" s="9">
-        <f>B168+1</f>
+        <f t="shared" si="2"/>
         <v>16732</v>
       </c>
       <c r="C169" s="9" t="s">
@@ -13310,7 +13310,7 @@
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
       <c r="B170" s="9">
-        <f>B169+1</f>
+        <f t="shared" si="2"/>
         <v>16733</v>
       </c>
       <c r="C170" s="9" t="s">
@@ -13326,7 +13326,7 @@
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="B171" s="9">
-        <f>B170+1</f>
+        <f t="shared" si="2"/>
         <v>16734</v>
       </c>
       <c r="C171" s="9" t="s">
@@ -13342,7 +13342,7 @@
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="B172" s="9">
-        <f>B171+1</f>
+        <f t="shared" si="2"/>
         <v>16735</v>
       </c>
       <c r="C172" s="9" t="s">
@@ -13358,7 +13358,7 @@
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
       <c r="B173" s="9">
-        <f>B172+1</f>
+        <f t="shared" si="2"/>
         <v>16736</v>
       </c>
       <c r="C173" s="9" t="s">
@@ -13374,7 +13374,7 @@
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
       <c r="B174" s="9">
-        <f>B173+1</f>
+        <f t="shared" si="2"/>
         <v>16737</v>
       </c>
       <c r="C174" s="9" t="s">
@@ -13390,7 +13390,7 @@
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
       <c r="B175" s="9">
-        <f>B174+1</f>
+        <f t="shared" si="2"/>
         <v>16738</v>
       </c>
       <c r="C175" s="9" t="s">
@@ -13406,7 +13406,7 @@
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="B176" s="9">
-        <f>B175+1</f>
+        <f t="shared" si="2"/>
         <v>16739</v>
       </c>
       <c r="C176" s="9" t="s">
@@ -13422,7 +13422,7 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="B177" s="9">
-        <f>B176+1</f>
+        <f t="shared" si="2"/>
         <v>16740</v>
       </c>
       <c r="C177" s="9" t="s">
@@ -13438,7 +13438,7 @@
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
       <c r="B178" s="9">
-        <f>B177+1</f>
+        <f t="shared" si="2"/>
         <v>16741</v>
       </c>
       <c r="C178" s="9" t="s">
@@ -13454,7 +13454,7 @@
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="B179" s="9">
-        <f>B178+1</f>
+        <f t="shared" si="2"/>
         <v>16742</v>
       </c>
       <c r="C179" s="9" t="s">
@@ -13470,7 +13470,7 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="B180" s="9">
-        <f>B179+1</f>
+        <f t="shared" si="2"/>
         <v>16743</v>
       </c>
       <c r="C180" s="9" t="s">
@@ -13486,7 +13486,7 @@
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="9">
-        <f>B180+1</f>
+        <f t="shared" si="2"/>
         <v>16744</v>
       </c>
       <c r="C181" s="9" t="s">
@@ -13502,7 +13502,7 @@
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="8"/>
       <c r="B182" s="9">
-        <f>B181+1</f>
+        <f t="shared" si="2"/>
         <v>16745</v>
       </c>
       <c r="C182" s="9" t="s">
@@ -13518,7 +13518,7 @@
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="B183" s="9">
-        <f>B182+1</f>
+        <f t="shared" si="2"/>
         <v>16746</v>
       </c>
       <c r="C183" s="9" t="s">
@@ -13534,7 +13534,7 @@
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="B184" s="9">
-        <f>B183+1</f>
+        <f t="shared" si="2"/>
         <v>16747</v>
       </c>
       <c r="C184" s="9" t="s">
@@ -13550,7 +13550,7 @@
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="B185" s="9">
-        <f>B184+1</f>
+        <f t="shared" si="2"/>
         <v>16748</v>
       </c>
       <c r="C185" s="9" t="s">
@@ -13566,7 +13566,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
       <c r="B186" s="9">
-        <f>B185+1</f>
+        <f t="shared" si="2"/>
         <v>16749</v>
       </c>
       <c r="C186" s="9" t="s">
@@ -13582,7 +13582,7 @@
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
       <c r="B187" s="9">
-        <f>B186+1</f>
+        <f t="shared" si="2"/>
         <v>16750</v>
       </c>
       <c r="C187" s="9" t="s">
@@ -13598,7 +13598,7 @@
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="B188" s="9">
-        <f>B187+1</f>
+        <f t="shared" si="2"/>
         <v>16751</v>
       </c>
       <c r="C188" s="9" t="s">
@@ -13614,7 +13614,7 @@
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="9">
-        <f>B188+1</f>
+        <f t="shared" si="2"/>
         <v>16752</v>
       </c>
       <c r="C189" s="9" t="s">
@@ -13630,7 +13630,7 @@
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="B190" s="9">
-        <f>B189+1</f>
+        <f t="shared" si="2"/>
         <v>16753</v>
       </c>
       <c r="C190" s="9" t="s">
@@ -13646,7 +13646,7 @@
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="B191" s="9">
-        <f>B190+1</f>
+        <f t="shared" si="2"/>
         <v>16754</v>
       </c>
       <c r="C191" s="9" t="s">
@@ -13662,7 +13662,7 @@
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="B192" s="9">
-        <f>B191+1</f>
+        <f t="shared" si="2"/>
         <v>16755</v>
       </c>
       <c r="C192" s="9" t="s">
@@ -13678,7 +13678,7 @@
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
       <c r="B193" s="9">
-        <f>B192+1</f>
+        <f t="shared" si="2"/>
         <v>16756</v>
       </c>
       <c r="C193" s="9" t="s">
@@ -13694,7 +13694,7 @@
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="8"/>
       <c r="B194" s="9">
-        <f>B193+1</f>
+        <f t="shared" si="2"/>
         <v>16757</v>
       </c>
       <c r="C194" s="9" t="s">
@@ -13710,7 +13710,7 @@
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="B195" s="9">
-        <f>B194+1</f>
+        <f t="shared" ref="B195:B257" si="3">B194+1</f>
         <v>16758</v>
       </c>
       <c r="C195" s="9" t="s">
@@ -13726,7 +13726,7 @@
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="9">
-        <f>B195+1</f>
+        <f t="shared" si="3"/>
         <v>16759</v>
       </c>
       <c r="C196" s="9" t="s">
@@ -13742,7 +13742,7 @@
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="B197" s="9">
-        <f>B196+1</f>
+        <f t="shared" si="3"/>
         <v>16760</v>
       </c>
       <c r="C197" s="9" t="s">
@@ -13758,7 +13758,7 @@
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="8"/>
       <c r="B198" s="9">
-        <f>B197+1</f>
+        <f t="shared" si="3"/>
         <v>16761</v>
       </c>
       <c r="C198" s="9" t="s">
@@ -13774,7 +13774,7 @@
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="B199" s="9">
-        <f>B198+1</f>
+        <f t="shared" si="3"/>
         <v>16762</v>
       </c>
       <c r="C199" s="9" t="s">
@@ -13790,7 +13790,7 @@
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="B200" s="9">
-        <f>B199+1</f>
+        <f t="shared" si="3"/>
         <v>16763</v>
       </c>
       <c r="C200" s="9" t="s">
@@ -13806,7 +13806,7 @@
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="8"/>
       <c r="B201" s="9">
-        <f>B200+1</f>
+        <f t="shared" si="3"/>
         <v>16764</v>
       </c>
       <c r="C201" s="9" t="s">
@@ -13822,7 +13822,7 @@
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="8"/>
       <c r="B202" s="9">
-        <f>B201+1</f>
+        <f t="shared" si="3"/>
         <v>16765</v>
       </c>
       <c r="C202" s="9" t="s">
@@ -13838,7 +13838,7 @@
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="8"/>
       <c r="B203" s="9">
-        <f>B202+1</f>
+        <f t="shared" si="3"/>
         <v>16766</v>
       </c>
       <c r="C203" s="9" t="s">
@@ -13854,7 +13854,7 @@
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
       <c r="B204" s="9">
-        <f>B203+1</f>
+        <f t="shared" si="3"/>
         <v>16767</v>
       </c>
       <c r="C204" s="9" t="s">
@@ -13870,7 +13870,7 @@
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
       <c r="B205" s="9">
-        <f>B204+1</f>
+        <f t="shared" si="3"/>
         <v>16768</v>
       </c>
       <c r="C205" s="9" t="s">
@@ -13886,7 +13886,7 @@
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
       <c r="B206" s="9">
-        <f>B205+1</f>
+        <f t="shared" si="3"/>
         <v>16769</v>
       </c>
       <c r="C206" s="9" t="s">
@@ -13902,7 +13902,7 @@
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="8"/>
       <c r="B207" s="9">
-        <f>B206+1</f>
+        <f t="shared" si="3"/>
         <v>16770</v>
       </c>
       <c r="C207" s="9" t="s">
@@ -13918,7 +13918,7 @@
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="8"/>
       <c r="B208" s="9">
-        <f>B207+1</f>
+        <f t="shared" si="3"/>
         <v>16771</v>
       </c>
       <c r="C208" s="9" t="s">
@@ -13934,7 +13934,7 @@
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="8"/>
       <c r="B209" s="9">
-        <f>B208+1</f>
+        <f t="shared" si="3"/>
         <v>16772</v>
       </c>
       <c r="C209" s="9" t="s">
@@ -13950,7 +13950,7 @@
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="8"/>
       <c r="B210" s="9">
-        <f>B209+1</f>
+        <f t="shared" si="3"/>
         <v>16773</v>
       </c>
       <c r="C210" s="9" t="s">
@@ -13966,7 +13966,7 @@
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="8"/>
       <c r="B211" s="9">
-        <f>B210+1</f>
+        <f t="shared" si="3"/>
         <v>16774</v>
       </c>
       <c r="C211" s="9" t="s">
@@ -13982,7 +13982,7 @@
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
       <c r="B212" s="9">
-        <f>B211+1</f>
+        <f t="shared" si="3"/>
         <v>16775</v>
       </c>
       <c r="C212" s="9" t="s">
@@ -13998,7 +13998,7 @@
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="8"/>
       <c r="B213" s="9">
-        <f>B212+1</f>
+        <f t="shared" si="3"/>
         <v>16776</v>
       </c>
       <c r="C213" s="9" t="s">
@@ -14014,7 +14014,7 @@
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
       <c r="B214" s="9">
-        <f>B213+1</f>
+        <f t="shared" si="3"/>
         <v>16777</v>
       </c>
       <c r="C214" s="9" t="s">
@@ -14030,7 +14030,7 @@
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="8"/>
       <c r="B215" s="9">
-        <f>B214+1</f>
+        <f t="shared" si="3"/>
         <v>16778</v>
       </c>
       <c r="C215" s="9" t="s">
@@ -14046,7 +14046,7 @@
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
       <c r="B216" s="9">
-        <f>B215+1</f>
+        <f t="shared" si="3"/>
         <v>16779</v>
       </c>
       <c r="C216" s="9" t="s">
@@ -14062,7 +14062,7 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="8"/>
       <c r="B217" s="9">
-        <f>B216+1</f>
+        <f t="shared" si="3"/>
         <v>16780</v>
       </c>
       <c r="C217" s="9" t="s">
@@ -14078,7 +14078,7 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
       <c r="B218" s="9">
-        <f>B217+1</f>
+        <f t="shared" si="3"/>
         <v>16781</v>
       </c>
       <c r="C218" s="9" t="s">
@@ -14094,7 +14094,7 @@
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
       <c r="B219" s="9">
-        <f>B218+1</f>
+        <f t="shared" si="3"/>
         <v>16782</v>
       </c>
       <c r="C219" s="9" t="s">
@@ -14110,7 +14110,7 @@
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="9">
-        <f>B219+1</f>
+        <f t="shared" si="3"/>
         <v>16783</v>
       </c>
       <c r="C220" s="9" t="s">
@@ -14126,7 +14126,7 @@
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
       <c r="B221" s="9">
-        <f>B220+1</f>
+        <f t="shared" si="3"/>
         <v>16784</v>
       </c>
       <c r="C221" s="9" t="s">
@@ -14142,7 +14142,7 @@
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="8"/>
       <c r="B222" s="9">
-        <f>B221+1</f>
+        <f t="shared" si="3"/>
         <v>16785</v>
       </c>
       <c r="C222" s="9" t="s">
@@ -14158,7 +14158,7 @@
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="8"/>
       <c r="B223" s="9">
-        <f>B222+1</f>
+        <f t="shared" si="3"/>
         <v>16786</v>
       </c>
       <c r="C223" s="9" t="s">
@@ -14174,7 +14174,7 @@
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="9">
-        <f>B223+1</f>
+        <f t="shared" si="3"/>
         <v>16787</v>
       </c>
       <c r="C224" s="9" t="s">
@@ -14190,7 +14190,7 @@
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="9">
-        <f>B224+1</f>
+        <f t="shared" si="3"/>
         <v>16788</v>
       </c>
       <c r="C225" s="9" t="s">
@@ -14206,7 +14206,7 @@
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="8"/>
       <c r="B226" s="9">
-        <f>B225+1</f>
+        <f t="shared" si="3"/>
         <v>16789</v>
       </c>
       <c r="C226" s="9" t="s">
@@ -14222,7 +14222,7 @@
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="8"/>
       <c r="B227" s="9">
-        <f>B226+1</f>
+        <f t="shared" si="3"/>
         <v>16790</v>
       </c>
       <c r="C227" s="9" t="s">
@@ -14238,7 +14238,7 @@
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="8"/>
       <c r="B228" s="9">
-        <f>B227+1</f>
+        <f t="shared" si="3"/>
         <v>16791</v>
       </c>
       <c r="C228" s="9" t="s">
@@ -14254,7 +14254,7 @@
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="8"/>
       <c r="B229" s="9">
-        <f>B228+1</f>
+        <f t="shared" si="3"/>
         <v>16792</v>
       </c>
       <c r="C229" s="9" t="s">
@@ -14270,7 +14270,7 @@
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="8"/>
       <c r="B230" s="9">
-        <f>B229+1</f>
+        <f t="shared" si="3"/>
         <v>16793</v>
       </c>
       <c r="C230" s="9" t="s">
@@ -14286,7 +14286,7 @@
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="8"/>
       <c r="B231" s="9">
-        <f>B230+1</f>
+        <f t="shared" si="3"/>
         <v>16794</v>
       </c>
       <c r="C231" s="9" t="s">
@@ -14302,7 +14302,7 @@
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="8"/>
       <c r="B232" s="9">
-        <f>B231+1</f>
+        <f t="shared" si="3"/>
         <v>16795</v>
       </c>
       <c r="C232" s="9" t="s">
@@ -14318,7 +14318,7 @@
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="8"/>
       <c r="B233" s="9">
-        <f>B232+1</f>
+        <f t="shared" si="3"/>
         <v>16796</v>
       </c>
       <c r="C233" s="9" t="s">
@@ -14334,7 +14334,7 @@
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="8"/>
       <c r="B234" s="9">
-        <f>B233+1</f>
+        <f t="shared" si="3"/>
         <v>16797</v>
       </c>
       <c r="C234" s="9" t="s">
@@ -14350,7 +14350,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="8"/>
       <c r="B235" s="9">
-        <f>B234+1</f>
+        <f t="shared" si="3"/>
         <v>16798</v>
       </c>
       <c r="C235" s="9" t="s">
@@ -14366,7 +14366,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="8"/>
       <c r="B236" s="9">
-        <f>B235+1</f>
+        <f t="shared" si="3"/>
         <v>16799</v>
       </c>
       <c r="C236" s="9" t="s">
@@ -14382,7 +14382,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="8"/>
       <c r="B237" s="9">
-        <f>B236+1</f>
+        <f t="shared" si="3"/>
         <v>16800</v>
       </c>
       <c r="C237" s="9" t="s">
@@ -14398,7 +14398,7 @@
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="8"/>
       <c r="B238" s="9">
-        <f>B237+1</f>
+        <f t="shared" si="3"/>
         <v>16801</v>
       </c>
       <c r="C238" s="9" t="s">
@@ -14414,7 +14414,7 @@
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="8"/>
       <c r="B239" s="9">
-        <f>B238+1</f>
+        <f t="shared" si="3"/>
         <v>16802</v>
       </c>
       <c r="C239" s="9" t="s">
@@ -14430,7 +14430,7 @@
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="8"/>
       <c r="B240" s="9">
-        <f>B239+1</f>
+        <f t="shared" si="3"/>
         <v>16803</v>
       </c>
       <c r="C240" s="9" t="s">
@@ -14446,7 +14446,7 @@
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="8"/>
       <c r="B241" s="9">
-        <f>B240+1</f>
+        <f t="shared" si="3"/>
         <v>16804</v>
       </c>
       <c r="C241" s="9" t="s">
@@ -14462,7 +14462,7 @@
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="8"/>
       <c r="B242" s="9">
-        <f>B241+1</f>
+        <f t="shared" si="3"/>
         <v>16805</v>
       </c>
       <c r="C242" s="9" t="s">
@@ -14478,7 +14478,7 @@
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="8"/>
       <c r="B243" s="9">
-        <f>B242+1</f>
+        <f t="shared" si="3"/>
         <v>16806</v>
       </c>
       <c r="C243" s="9" t="s">
@@ -14494,7 +14494,7 @@
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="8"/>
       <c r="B244" s="9">
-        <f>B243+1</f>
+        <f t="shared" si="3"/>
         <v>16807</v>
       </c>
       <c r="C244" s="9" t="s">
@@ -14510,7 +14510,7 @@
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="8"/>
       <c r="B245" s="9">
-        <f>B244+1</f>
+        <f t="shared" si="3"/>
         <v>16808</v>
       </c>
       <c r="C245" s="9" t="s">
@@ -14526,7 +14526,7 @@
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="8"/>
       <c r="B246" s="9">
-        <f>B245+1</f>
+        <f t="shared" si="3"/>
         <v>16809</v>
       </c>
       <c r="C246" s="9" t="s">
@@ -14542,7 +14542,7 @@
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="8"/>
       <c r="B247" s="9">
-        <f>B246+1</f>
+        <f t="shared" si="3"/>
         <v>16810</v>
       </c>
       <c r="C247" s="9" t="s">
@@ -14558,7 +14558,7 @@
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="8"/>
       <c r="B248" s="9">
-        <f>B247+1</f>
+        <f t="shared" si="3"/>
         <v>16811</v>
       </c>
       <c r="C248" s="9" t="s">
@@ -14574,7 +14574,7 @@
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="8"/>
       <c r="B249" s="9">
-        <f>B248+1</f>
+        <f t="shared" si="3"/>
         <v>16812</v>
       </c>
       <c r="C249" s="9" t="s">
@@ -14590,7 +14590,7 @@
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="8"/>
       <c r="B250" s="9">
-        <f>B249+1</f>
+        <f t="shared" si="3"/>
         <v>16813</v>
       </c>
       <c r="C250" s="9" t="s">
@@ -14606,7 +14606,7 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="8"/>
       <c r="B251" s="9">
-        <f>B250+1</f>
+        <f t="shared" si="3"/>
         <v>16814</v>
       </c>
       <c r="C251" s="9" t="s">
@@ -14622,7 +14622,7 @@
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="8"/>
       <c r="B252" s="9">
-        <f>B251+1</f>
+        <f t="shared" si="3"/>
         <v>16815</v>
       </c>
       <c r="C252" s="9" t="s">
@@ -14638,7 +14638,7 @@
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="8"/>
       <c r="B253" s="9">
-        <f>B252+1</f>
+        <f t="shared" si="3"/>
         <v>16816</v>
       </c>
       <c r="C253" s="9" t="s">
@@ -14654,7 +14654,7 @@
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="8"/>
       <c r="B254" s="9">
-        <f>B253+1</f>
+        <f t="shared" si="3"/>
         <v>16817</v>
       </c>
       <c r="C254" s="9" t="s">
@@ -14670,7 +14670,7 @@
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
       <c r="B255" s="9">
-        <f>B254+1</f>
+        <f t="shared" si="3"/>
         <v>16818</v>
       </c>
       <c r="C255" s="9" t="s">
@@ -14686,7 +14686,7 @@
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="8"/>
       <c r="B256" s="9">
-        <f>B255+1</f>
+        <f t="shared" si="3"/>
         <v>16819</v>
       </c>
       <c r="C256" s="9" t="s">
@@ -14702,7 +14702,7 @@
     <row r="257" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="11"/>
       <c r="B257" s="12">
-        <f>B256+1</f>
+        <f t="shared" si="3"/>
         <v>16820</v>
       </c>
       <c r="C257" s="12" t="s">
@@ -17864,7 +17864,7 @@
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="9">
-        <f t="shared" ref="B196:B259" si="3">B195+1</f>
+        <f t="shared" ref="B196:B257" si="3">B195+1</f>
         <v>17277</v>
       </c>
       <c r="C196" s="9" t="s">
@@ -18875,7 +18875,7 @@
   </sheetPr>
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
@@ -22011,7 +22011,7 @@
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="14"/>
       <c r="B196" s="15">
-        <f t="shared" ref="B196:B259" si="3">B195+1</f>
+        <f t="shared" ref="B196:B257" si="3">B195+1</f>
         <v>17534</v>
       </c>
       <c r="C196" s="9" t="s">

--- a/Texts/Глоссарий/Названия Локаций (всех).xlsx
+++ b/Texts/Глоссарий/Названия Локаций (всех).xlsx
@@ -4322,7 +4322,7 @@
   </sheetPr>
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -6446,8 +6446,8 @@
   </sheetPr>
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10586,8 +10586,8 @@
   </sheetPr>
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Texts/Глоссарий/Названия Локаций (всех).xlsx
+++ b/Texts/Глоссарий/Названия Локаций (всех).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="657" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="657" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Не подземелья" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="1199">
   <si>
     <t>Раздел</t>
   </si>
@@ -3815,6 +3815,22 @@
   <si>
     <t>Äîï
 Ðåþåñ Éòóïœîéëïâ</t>
+  </si>
+  <si>
+    <t>Нормальный/Летающий
+Лабиринт</t>
+  </si>
+  <si>
+    <t>Îïñíàìûîúê/Ìåóàýþéê
+Ìàáéñéîó</t>
+  </si>
+  <si>
+    <t>Электрический/Стальной
+Лабиринт</t>
+  </si>
+  <si>
+    <t>Üìåëóñéœåòëéê/Òóàìûîïê
+Ìàáéñéîó</t>
   </si>
 </sst>
 </file>
@@ -4322,8 +4338,8 @@
   </sheetPr>
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6446,8 +6462,8 @@
   </sheetPr>
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14727,8 +14743,8 @@
   </sheetPr>
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214:E214"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18875,8 +18891,8 @@
   </sheetPr>
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21784,7 +21800,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
       <c r="B182" s="15">
         <f t="shared" si="2"/>
@@ -21794,10 +21810,10 @@
         <v>419</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>562</v>
+        <v>1195</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>702</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -21848,7 +21864,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15">
         <f t="shared" si="2"/>
@@ -21858,10 +21874,10 @@
         <v>423</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>566</v>
+        <v>1197</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>706</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">

--- a/Texts/Глоссарий/Названия Локаций (всех).xlsx
+++ b/Texts/Глоссарий/Названия Локаций (всех).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="657" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="657" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Не подземелья" sheetId="1" r:id="rId1"/>
@@ -6462,8 +6462,8 @@
   </sheetPr>
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14743,7 +14743,7 @@
   </sheetPr>
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -18891,8 +18891,8 @@
   </sheetPr>
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
